--- a/Chấm công/Chấm công tổng hợp/bảng chấm công 01 đến 15 tháng 01 năm 2026.xlsx
+++ b/Chấm công/Chấm công tổng hợp/bảng chấm công 01 đến 15 tháng 01 năm 2026.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Duc Anh\Chấm công\Chấm công tổng hợp\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7B9365C2-FA6A-4FB7-A731-909F40253472}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{98FBB0C5-1710-44D3-912F-D35737ED439F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" activeTab="6" xr2:uid="{7C654F61-D3F6-46B9-9944-3469B6AD53BB}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" activeTab="5" xr2:uid="{7C654F61-D3F6-46B9-9944-3469B6AD53BB}"/>
   </bookViews>
   <sheets>
     <sheet name="Bắc đảo" sheetId="2" r:id="rId1"/>
@@ -19,7 +19,6 @@
     <sheet name="Bắc Đảo hiện tại" sheetId="5" r:id="rId4"/>
     <sheet name="dương đông hiện tại" sheetId="6" r:id="rId5"/>
     <sheet name="Nam Đảo hiện tại" sheetId="3" r:id="rId6"/>
-    <sheet name="Sheet1" sheetId="7" r:id="rId7"/>
   </sheets>
   <calcPr calcId="191029"/>
   <extLst>
@@ -40,7 +39,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="420" uniqueCount="96">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="355" uniqueCount="94">
   <si>
     <t>CÔNG TY TNHH MTV VẬN TẢI VÀ DU LỊCH MINH HẢI</t>
   </si>
@@ -319,24 +318,17 @@
     <t>BẢNG TỔNG HỢP DOANH THU DƯƠNG ĐÔNG (01 - 15/01/2026)</t>
   </si>
   <si>
-    <t xml:space="preserve">Tiền cọc </t>
-  </si>
-  <si>
-    <t>PHẦN CHÊNH LỆCH 10%
-(Chưa cọc)</t>
-  </si>
-  <si>
-    <t>ĐÃ ĐÓNG</t>
-  </si>
-  <si>
-    <t xml:space="preserve">ĐÃ ĐÓNG </t>
+    <t>ĐÃ THANH TOÁN</t>
+  </si>
+  <si>
+    <t>Ngày cọc 17/01</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="11" x14ac:knownFonts="1">
+  <fonts count="12" x14ac:knownFonts="1">
     <font>
       <sz val="13"/>
       <color theme="1"/>
@@ -400,6 +392,13 @@
     <font>
       <b/>
       <sz val="26"/>
+      <color theme="1"/>
+      <name val="Times New Roman"/>
+      <family val="1"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="12"/>
       <color theme="1"/>
       <name val="Times New Roman"/>
       <family val="1"/>
@@ -545,7 +544,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="52">
+  <cellXfs count="54">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment vertical="center"/>
@@ -693,6 +692,12 @@
     </xf>
     <xf numFmtId="0" fontId="10" fillId="8" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="7" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="7" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -1011,7 +1016,7 @@
   <dimension ref="A1:M12"/>
   <sheetViews>
     <sheetView zoomScaleNormal="100" workbookViewId="0">
-      <selection sqref="A1:M11"/>
+      <selection activeCell="J15" sqref="J15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.25"/>
@@ -2672,8 +2677,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{4F1272D7-D111-44D1-8D7B-C8C37D80B9DE}">
   <dimension ref="A1:M18"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection sqref="A1:M14"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="L12" sqref="L12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.25"/>
@@ -2796,11 +2801,15 @@
         <f t="shared" ref="J6:J11" si="2">H6*10%</f>
         <v>684000</v>
       </c>
-      <c r="K6" s="13" t="s">
-        <v>39</v>
-      </c>
-      <c r="L6" s="15"/>
-      <c r="M6" s="17"/>
+      <c r="K6" s="53" t="s">
+        <v>38</v>
+      </c>
+      <c r="L6" s="13" t="s">
+        <v>39</v>
+      </c>
+      <c r="M6" s="19" t="s">
+        <v>93</v>
+      </c>
     </row>
     <row r="7" spans="1:13" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A7" s="51"/>
@@ -2835,10 +2844,12 @@
         <f t="shared" si="2"/>
         <v>560500</v>
       </c>
-      <c r="K7" s="34" t="s">
+      <c r="K7" s="53" t="s">
         <v>38</v>
       </c>
-      <c r="L7" s="15"/>
+      <c r="L7" s="52" t="s">
+        <v>92</v>
+      </c>
       <c r="M7" s="18" t="s">
         <v>40</v>
       </c>
@@ -2879,7 +2890,9 @@
       <c r="K8" s="16" t="s">
         <v>39</v>
       </c>
-      <c r="L8" s="15"/>
+      <c r="L8" s="13" t="s">
+        <v>39</v>
+      </c>
       <c r="M8" s="19"/>
     </row>
     <row r="9" spans="1:13" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
@@ -2915,10 +2928,12 @@
         <f t="shared" si="2"/>
         <v>352400</v>
       </c>
-      <c r="K9" s="34" t="s">
+      <c r="K9" s="53" t="s">
         <v>38</v>
       </c>
-      <c r="L9" s="15"/>
+      <c r="L9" s="52" t="s">
+        <v>92</v>
+      </c>
       <c r="M9" s="18" t="s">
         <v>42</v>
       </c>
@@ -2956,10 +2971,12 @@
         <f t="shared" si="2"/>
         <v>62400</v>
       </c>
-      <c r="K10" s="34" t="s">
+      <c r="K10" s="53" t="s">
         <v>38</v>
       </c>
-      <c r="L10" s="15"/>
+      <c r="L10" s="52" t="s">
+        <v>92</v>
+      </c>
       <c r="M10" s="19" t="s">
         <v>43</v>
       </c>
@@ -2997,11 +3014,15 @@
         <f t="shared" si="2"/>
         <v>706100</v>
       </c>
-      <c r="K11" s="13" t="s">
-        <v>39</v>
-      </c>
-      <c r="L11" s="15"/>
-      <c r="M11" s="17"/>
+      <c r="K11" s="53" t="s">
+        <v>38</v>
+      </c>
+      <c r="L11" s="52" t="s">
+        <v>92</v>
+      </c>
+      <c r="M11" s="19" t="s">
+        <v>93</v>
+      </c>
     </row>
     <row r="12" spans="1:13" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A12" s="51"/>
@@ -3037,7 +3058,9 @@
       <c r="K12" s="13" t="s">
         <v>39</v>
       </c>
-      <c r="L12" s="15"/>
+      <c r="L12" s="13" t="s">
+        <v>39</v>
+      </c>
       <c r="M12" s="33" t="s">
         <v>64</v>
       </c>
@@ -3076,7 +3099,9 @@
       <c r="K13" s="13" t="s">
         <v>39</v>
       </c>
-      <c r="L13" s="15"/>
+      <c r="L13" s="13" t="s">
+        <v>39</v>
+      </c>
       <c r="M13" s="33" t="s">
         <v>65</v>
       </c>
@@ -3115,7 +3140,9 @@
       <c r="K14" s="13" t="s">
         <v>39</v>
       </c>
-      <c r="L14" s="15"/>
+      <c r="L14" s="13" t="s">
+        <v>39</v>
+      </c>
       <c r="M14" s="33" t="s">
         <v>66</v>
       </c>
@@ -3132,494 +3159,4 @@
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
-</file>
-
-<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{429A766D-388B-4AEA-A1E9-02289F8225A6}">
-  <dimension ref="A1:N14"/>
-  <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="K10" sqref="K10"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.25"/>
-  <cols>
-    <col min="1" max="1" width="14.77734375" customWidth="1"/>
-    <col min="3" max="3" width="14" customWidth="1"/>
-    <col min="4" max="4" width="9.21875" customWidth="1"/>
-    <col min="5" max="5" width="14.33203125" hidden="1" customWidth="1"/>
-    <col min="6" max="6" width="14" customWidth="1"/>
-    <col min="7" max="7" width="14.33203125" customWidth="1"/>
-    <col min="8" max="8" width="15" customWidth="1"/>
-    <col min="9" max="9" width="15.33203125" hidden="1" customWidth="1"/>
-    <col min="10" max="11" width="15.44140625" customWidth="1"/>
-    <col min="12" max="12" width="14" customWidth="1"/>
-    <col min="13" max="13" width="18.33203125" customWidth="1"/>
-    <col min="14" max="14" width="18.5546875" customWidth="1"/>
-  </cols>
-  <sheetData>
-    <row r="1" spans="1:14" ht="27.75" x14ac:dyDescent="0.25">
-      <c r="E1" s="1" t="s">
-        <v>0</v>
-      </c>
-      <c r="F1" s="1"/>
-      <c r="G1" s="1"/>
-      <c r="H1" s="1"/>
-      <c r="I1" s="1"/>
-      <c r="J1" s="1"/>
-      <c r="K1" s="1"/>
-    </row>
-    <row r="2" spans="1:14" ht="20.25" x14ac:dyDescent="0.25">
-      <c r="G2" s="2" t="s">
-        <v>90</v>
-      </c>
-      <c r="M2" s="42" t="s">
-        <v>16</v>
-      </c>
-      <c r="N2" s="7">
-        <v>1700000</v>
-      </c>
-    </row>
-    <row r="3" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="M3" s="42" t="s">
-        <v>36</v>
-      </c>
-      <c r="N3" s="12" t="s">
-        <v>37</v>
-      </c>
-    </row>
-    <row r="4" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="E4" s="43"/>
-      <c r="F4" s="43"/>
-      <c r="M4" s="42" t="s">
-        <v>92</v>
-      </c>
-      <c r="N4" s="7">
-        <v>3000000</v>
-      </c>
-    </row>
-    <row r="5" spans="1:14" ht="49.5" x14ac:dyDescent="0.25">
-      <c r="B5" s="40" t="s">
-        <v>1</v>
-      </c>
-      <c r="C5" s="44" t="s">
-        <v>3</v>
-      </c>
-      <c r="D5" s="45"/>
-      <c r="E5" s="40" t="s">
-        <v>4</v>
-      </c>
-      <c r="F5" s="41" t="s">
-        <v>2</v>
-      </c>
-      <c r="G5" s="40" t="s">
-        <v>5</v>
-      </c>
-      <c r="H5" s="41" t="s">
-        <v>6</v>
-      </c>
-      <c r="I5" s="41" t="s">
-        <v>7</v>
-      </c>
-      <c r="J5" s="41" t="s">
-        <v>8</v>
-      </c>
-      <c r="K5" s="41" t="s">
-        <v>93</v>
-      </c>
-      <c r="L5" s="40" t="s">
-        <v>31</v>
-      </c>
-      <c r="M5" s="40" t="s">
-        <v>17</v>
-      </c>
-      <c r="N5" s="40" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="6" spans="1:14" ht="18.75" x14ac:dyDescent="0.3">
-      <c r="A6" s="50" t="s">
-        <v>87</v>
-      </c>
-      <c r="B6" s="13">
-        <v>1</v>
-      </c>
-      <c r="C6" s="10" t="s">
-        <v>25</v>
-      </c>
-      <c r="D6" s="8" t="s">
-        <v>21</v>
-      </c>
-      <c r="E6" s="3" t="s">
-        <v>10</v>
-      </c>
-      <c r="F6" s="31">
-        <v>32340000</v>
-      </c>
-      <c r="G6" s="14">
-        <v>25500000</v>
-      </c>
-      <c r="H6" s="14">
-        <f t="shared" ref="H6:H11" si="0">F6-G6</f>
-        <v>6840000</v>
-      </c>
-      <c r="I6" s="14">
-        <f t="shared" ref="I6:I13" si="1">F6*40%</f>
-        <v>12936000</v>
-      </c>
-      <c r="J6" s="31" t="s">
-        <v>39</v>
-      </c>
-      <c r="K6" s="31">
-        <f>(H6-$N4)*10%</f>
-        <v>384000</v>
-      </c>
-      <c r="L6" s="13" t="s">
-        <v>39</v>
-      </c>
-      <c r="M6" s="15"/>
-      <c r="N6" s="17"/>
-    </row>
-    <row r="7" spans="1:14" ht="18.75" x14ac:dyDescent="0.25">
-      <c r="A7" s="51"/>
-      <c r="B7" s="13">
-        <f>B6+1</f>
-        <v>2</v>
-      </c>
-      <c r="C7" s="11" t="s">
-        <v>27</v>
-      </c>
-      <c r="D7" s="9" t="s">
-        <v>33</v>
-      </c>
-      <c r="E7" s="4" t="s">
-        <v>19</v>
-      </c>
-      <c r="F7" s="31">
-        <v>31105000</v>
-      </c>
-      <c r="G7" s="14">
-        <v>25500000</v>
-      </c>
-      <c r="H7" s="14">
-        <f t="shared" si="0"/>
-        <v>5605000</v>
-      </c>
-      <c r="I7" s="14">
-        <f t="shared" si="1"/>
-        <v>12442000</v>
-      </c>
-      <c r="J7" s="31">
-        <f t="shared" ref="J6:J11" si="2">H7*10%</f>
-        <v>560500</v>
-      </c>
-      <c r="K7" s="31" t="s">
-        <v>39</v>
-      </c>
-      <c r="L7" s="34" t="s">
-        <v>94</v>
-      </c>
-      <c r="M7" s="15"/>
-      <c r="N7" s="18" t="s">
-        <v>40</v>
-      </c>
-    </row>
-    <row r="8" spans="1:14" ht="18.75" x14ac:dyDescent="0.3">
-      <c r="A8" s="51"/>
-      <c r="B8" s="13">
-        <f>B7+1</f>
-        <v>3</v>
-      </c>
-      <c r="C8" s="10" t="s">
-        <v>28</v>
-      </c>
-      <c r="D8" s="8" t="s">
-        <v>34</v>
-      </c>
-      <c r="E8" s="5" t="s">
-        <v>12</v>
-      </c>
-      <c r="F8" s="31">
-        <v>28020000</v>
-      </c>
-      <c r="G8" s="14">
-        <v>25500000</v>
-      </c>
-      <c r="H8" s="14">
-        <f t="shared" si="0"/>
-        <v>2520000</v>
-      </c>
-      <c r="I8" s="14">
-        <f t="shared" si="1"/>
-        <v>11208000</v>
-      </c>
-      <c r="J8" s="31" t="s">
-        <v>39</v>
-      </c>
-      <c r="K8" s="31">
-        <v>0</v>
-      </c>
-      <c r="L8" s="16" t="s">
-        <v>39</v>
-      </c>
-      <c r="M8" s="15"/>
-      <c r="N8" s="19"/>
-    </row>
-    <row r="9" spans="1:14" ht="18.75" x14ac:dyDescent="0.25">
-      <c r="A9" s="51"/>
-      <c r="B9" s="13">
-        <f>B8+1</f>
-        <v>4</v>
-      </c>
-      <c r="C9" s="10" t="s">
-        <v>29</v>
-      </c>
-      <c r="D9" s="8" t="s">
-        <v>22</v>
-      </c>
-      <c r="E9" s="5" t="s">
-        <v>18</v>
-      </c>
-      <c r="F9" s="31">
-        <v>29024000</v>
-      </c>
-      <c r="G9" s="14">
-        <v>25500000</v>
-      </c>
-      <c r="H9" s="14">
-        <f t="shared" si="0"/>
-        <v>3524000</v>
-      </c>
-      <c r="I9" s="14">
-        <f t="shared" si="1"/>
-        <v>11609600</v>
-      </c>
-      <c r="J9" s="31">
-        <f t="shared" si="2"/>
-        <v>352400</v>
-      </c>
-      <c r="K9" s="31" t="s">
-        <v>39</v>
-      </c>
-      <c r="L9" s="34" t="s">
-        <v>94</v>
-      </c>
-      <c r="M9" s="15"/>
-      <c r="N9" s="18" t="s">
-        <v>42</v>
-      </c>
-    </row>
-    <row r="10" spans="1:14" ht="18.75" x14ac:dyDescent="0.3">
-      <c r="A10" s="51"/>
-      <c r="B10" s="13">
-        <f>B9+1</f>
-        <v>5</v>
-      </c>
-      <c r="C10" s="10" t="s">
-        <v>35</v>
-      </c>
-      <c r="D10" s="8" t="s">
-        <v>23</v>
-      </c>
-      <c r="E10" s="5" t="s">
-        <v>14</v>
-      </c>
-      <c r="F10" s="31">
-        <v>26124000</v>
-      </c>
-      <c r="G10" s="14">
-        <v>25500000</v>
-      </c>
-      <c r="H10" s="14">
-        <f t="shared" si="0"/>
-        <v>624000</v>
-      </c>
-      <c r="I10" s="14">
-        <f t="shared" si="1"/>
-        <v>10449600</v>
-      </c>
-      <c r="J10" s="31">
-        <f t="shared" si="2"/>
-        <v>62400</v>
-      </c>
-      <c r="K10" s="31" t="s">
-        <v>39</v>
-      </c>
-      <c r="L10" s="34" t="s">
-        <v>95</v>
-      </c>
-      <c r="M10" s="15"/>
-      <c r="N10" s="19" t="s">
-        <v>43</v>
-      </c>
-    </row>
-    <row r="11" spans="1:14" ht="18.75" x14ac:dyDescent="0.3">
-      <c r="A11" s="51"/>
-      <c r="B11" s="13">
-        <f>B10+1</f>
-        <v>6</v>
-      </c>
-      <c r="C11" s="10" t="s">
-        <v>30</v>
-      </c>
-      <c r="D11" s="8" t="s">
-        <v>24</v>
-      </c>
-      <c r="E11" s="6" t="s">
-        <v>20</v>
-      </c>
-      <c r="F11" s="31">
-        <v>32561000</v>
-      </c>
-      <c r="G11" s="14">
-        <v>25500000</v>
-      </c>
-      <c r="H11" s="14">
-        <f t="shared" si="0"/>
-        <v>7061000</v>
-      </c>
-      <c r="I11" s="14">
-        <f t="shared" si="1"/>
-        <v>13024400</v>
-      </c>
-      <c r="J11" s="31" t="s">
-        <v>39</v>
-      </c>
-      <c r="K11" s="31">
-        <v>406000</v>
-      </c>
-      <c r="L11" s="13" t="s">
-        <v>39</v>
-      </c>
-      <c r="M11" s="15"/>
-      <c r="N11" s="17"/>
-    </row>
-    <row r="12" spans="1:14" ht="18.75" x14ac:dyDescent="0.3">
-      <c r="A12" s="51"/>
-      <c r="B12" s="13">
-        <f t="shared" ref="B12:B14" si="3">B11+1</f>
-        <v>7</v>
-      </c>
-      <c r="C12" s="10" t="s">
-        <v>46</v>
-      </c>
-      <c r="D12" s="8" t="s">
-        <v>47</v>
-      </c>
-      <c r="E12" s="5" t="s">
-        <v>15</v>
-      </c>
-      <c r="F12" s="31">
-        <v>15425000</v>
-      </c>
-      <c r="G12" s="13" t="s">
-        <v>39</v>
-      </c>
-      <c r="H12" s="13" t="s">
-        <v>39</v>
-      </c>
-      <c r="I12" s="14">
-        <f t="shared" si="1"/>
-        <v>6170000</v>
-      </c>
-      <c r="J12" s="13" t="s">
-        <v>39</v>
-      </c>
-      <c r="K12" s="13"/>
-      <c r="L12" s="13" t="s">
-        <v>39</v>
-      </c>
-      <c r="M12" s="15"/>
-      <c r="N12" s="33" t="s">
-        <v>64</v>
-      </c>
-    </row>
-    <row r="13" spans="1:14" ht="18.75" x14ac:dyDescent="0.3">
-      <c r="A13" s="51"/>
-      <c r="B13" s="13">
-        <f t="shared" si="3"/>
-        <v>8</v>
-      </c>
-      <c r="C13" s="10" t="s">
-        <v>48</v>
-      </c>
-      <c r="D13" s="8" t="s">
-        <v>49</v>
-      </c>
-      <c r="E13" s="6" t="s">
-        <v>68</v>
-      </c>
-      <c r="F13" s="31">
-        <v>25042000</v>
-      </c>
-      <c r="G13" s="13" t="s">
-        <v>39</v>
-      </c>
-      <c r="H13" s="13" t="s">
-        <v>39</v>
-      </c>
-      <c r="I13" s="14">
-        <f t="shared" si="1"/>
-        <v>10016800</v>
-      </c>
-      <c r="J13" s="13" t="s">
-        <v>39</v>
-      </c>
-      <c r="K13" s="13"/>
-      <c r="L13" s="13" t="s">
-        <v>39</v>
-      </c>
-      <c r="M13" s="15"/>
-      <c r="N13" s="33" t="s">
-        <v>65</v>
-      </c>
-    </row>
-    <row r="14" spans="1:14" ht="18.75" x14ac:dyDescent="0.3">
-      <c r="A14" s="51"/>
-      <c r="B14" s="13">
-        <f t="shared" si="3"/>
-        <v>9</v>
-      </c>
-      <c r="C14" s="10" t="s">
-        <v>52</v>
-      </c>
-      <c r="D14" s="8" t="s">
-        <v>53</v>
-      </c>
-      <c r="E14" s="20" t="s">
-        <v>61</v>
-      </c>
-      <c r="F14" s="31">
-        <v>5128000</v>
-      </c>
-      <c r="G14" s="13" t="s">
-        <v>39</v>
-      </c>
-      <c r="H14" s="13" t="s">
-        <v>39</v>
-      </c>
-      <c r="I14" s="14">
-        <f>F14*40%</f>
-        <v>2051200</v>
-      </c>
-      <c r="J14" s="13" t="s">
-        <v>39</v>
-      </c>
-      <c r="K14" s="13"/>
-      <c r="L14" s="13" t="s">
-        <v>39</v>
-      </c>
-      <c r="M14" s="15"/>
-      <c r="N14" s="33" t="s">
-        <v>66</v>
-      </c>
-    </row>
-  </sheetData>
-  <mergeCells count="3">
-    <mergeCell ref="E4:F4"/>
-    <mergeCell ref="C5:D5"/>
-    <mergeCell ref="A6:A14"/>
-  </mergeCells>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-</worksheet>
 </file>
--- a/Chấm công/Chấm công tổng hợp/bảng chấm công 01 đến 15 tháng 01 năm 2026.xlsx
+++ b/Chấm công/Chấm công tổng hợp/bảng chấm công 01 đến 15 tháng 01 năm 2026.xlsx
@@ -8,17 +8,17 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Duc Anh\Chấm công\Chấm công tổng hợp\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{98FBB0C5-1710-44D3-912F-D35737ED439F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{37BF4AC9-07B4-43F2-94CE-CDE11A8A206F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" activeTab="5" xr2:uid="{7C654F61-D3F6-46B9-9944-3469B6AD53BB}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" activeTab="4" xr2:uid="{7C654F61-D3F6-46B9-9944-3469B6AD53BB}"/>
   </bookViews>
   <sheets>
     <sheet name="Bắc đảo" sheetId="2" r:id="rId1"/>
     <sheet name="dương đông" sheetId="4" r:id="rId2"/>
     <sheet name="nam đảo" sheetId="1" r:id="rId3"/>
-    <sheet name="Bắc Đảo hiện tại" sheetId="5" r:id="rId4"/>
-    <sheet name="dương đông hiện tại" sheetId="6" r:id="rId5"/>
-    <sheet name="Nam Đảo hiện tại" sheetId="3" r:id="rId6"/>
+    <sheet name="Nam Đảo hiện tại" sheetId="3" r:id="rId4"/>
+    <sheet name="Bắc Đảo hiện tại" sheetId="5" r:id="rId5"/>
+    <sheet name="dương đông hiện tại" sheetId="6" r:id="rId6"/>
   </sheets>
   <calcPr calcId="191029"/>
   <extLst>
@@ -666,6 +666,12 @@
     <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="0" fontId="3" fillId="7" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="7" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -692,12 +698,6 @@
     </xf>
     <xf numFmtId="0" fontId="10" fillId="8" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="7" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="7" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -1016,7 +1016,7 @@
   <dimension ref="A1:M12"/>
   <sheetViews>
     <sheetView zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="J15" sqref="J15"/>
+      <selection activeCell="J6" sqref="J6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.25"/>
@@ -1065,17 +1065,17 @@
       </c>
     </row>
     <row r="4" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="E4" s="43"/>
-      <c r="F4" s="43"/>
+      <c r="E4" s="45"/>
+      <c r="F4" s="45"/>
     </row>
     <row r="5" spans="1:13" ht="49.5" x14ac:dyDescent="0.25">
       <c r="B5" s="40" t="s">
         <v>1</v>
       </c>
-      <c r="C5" s="44" t="s">
+      <c r="C5" s="46" t="s">
         <v>3</v>
       </c>
-      <c r="D5" s="45"/>
+      <c r="D5" s="47"/>
       <c r="E5" s="40" t="s">
         <v>4</v>
       </c>
@@ -1105,7 +1105,7 @@
       </c>
     </row>
     <row r="6" spans="1:13" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A6" s="46" t="s">
+      <c r="A6" s="48" t="s">
         <v>89</v>
       </c>
       <c r="B6" s="13">
@@ -1147,7 +1147,7 @@
       </c>
     </row>
     <row r="7" spans="1:13" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A7" s="47"/>
+      <c r="A7" s="49"/>
       <c r="B7" s="22">
         <f t="shared" ref="B7:B11" si="1">B6+1</f>
         <v>2</v>
@@ -1186,7 +1186,7 @@
       </c>
     </row>
     <row r="8" spans="1:13" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A8" s="47"/>
+      <c r="A8" s="49"/>
       <c r="B8" s="22">
         <f t="shared" si="1"/>
         <v>3</v>
@@ -1225,7 +1225,7 @@
       </c>
     </row>
     <row r="9" spans="1:13" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A9" s="47"/>
+      <c r="A9" s="49"/>
       <c r="B9" s="13">
         <f t="shared" si="1"/>
         <v>4</v>
@@ -1264,7 +1264,7 @@
       </c>
     </row>
     <row r="10" spans="1:13" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A10" s="47"/>
+      <c r="A10" s="49"/>
       <c r="B10" s="13">
         <f t="shared" si="1"/>
         <v>5</v>
@@ -1303,7 +1303,7 @@
       </c>
     </row>
     <row r="11" spans="1:13" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A11" s="47"/>
+      <c r="A11" s="49"/>
       <c r="B11" s="22">
         <f t="shared" si="1"/>
         <v>6</v>
@@ -1404,17 +1404,17 @@
       </c>
     </row>
     <row r="4" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="E4" s="43"/>
-      <c r="F4" s="43"/>
+      <c r="E4" s="45"/>
+      <c r="F4" s="45"/>
     </row>
     <row r="5" spans="1:13" ht="49.5" x14ac:dyDescent="0.25">
       <c r="B5" s="40" t="s">
         <v>1</v>
       </c>
-      <c r="C5" s="44" t="s">
+      <c r="C5" s="46" t="s">
         <v>3</v>
       </c>
-      <c r="D5" s="45"/>
+      <c r="D5" s="47"/>
       <c r="E5" s="40" t="s">
         <v>4</v>
       </c>
@@ -1444,7 +1444,7 @@
       </c>
     </row>
     <row r="6" spans="1:13" ht="54.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A6" s="48" t="s">
+      <c r="A6" s="50" t="s">
         <v>88</v>
       </c>
       <c r="B6" s="37">
@@ -1484,7 +1484,7 @@
       </c>
     </row>
     <row r="7" spans="1:13" ht="60.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A7" s="49"/>
+      <c r="A7" s="51"/>
       <c r="B7" s="37">
         <v>2</v>
       </c>
@@ -1522,7 +1522,7 @@
       </c>
     </row>
     <row r="8" spans="1:13" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A8" s="49"/>
+      <c r="A8" s="51"/>
       <c r="B8" s="13">
         <f>B7+1</f>
         <v>3</v>
@@ -1592,7 +1592,7 @@
   <dimension ref="A1:M24"/>
   <sheetViews>
     <sheetView zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="I16" sqref="I16"/>
+      <selection activeCell="K11" sqref="K11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.25"/>
@@ -1641,17 +1641,17 @@
       </c>
     </row>
     <row r="4" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="E4" s="43"/>
-      <c r="F4" s="43"/>
+      <c r="E4" s="45"/>
+      <c r="F4" s="45"/>
     </row>
     <row r="5" spans="1:13" ht="49.5" x14ac:dyDescent="0.25">
       <c r="B5" s="40" t="s">
         <v>1</v>
       </c>
-      <c r="C5" s="44" t="s">
+      <c r="C5" s="46" t="s">
         <v>3</v>
       </c>
-      <c r="D5" s="45"/>
+      <c r="D5" s="47"/>
       <c r="E5" s="40" t="s">
         <v>4</v>
       </c>
@@ -1681,7 +1681,7 @@
       </c>
     </row>
     <row r="6" spans="1:13" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A6" s="50" t="s">
+      <c r="A6" s="52" t="s">
         <v>87</v>
       </c>
       <c r="B6" s="13">
@@ -1721,7 +1721,7 @@
       <c r="M6" s="17"/>
     </row>
     <row r="7" spans="1:13" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A7" s="51"/>
+      <c r="A7" s="53"/>
       <c r="B7" s="13">
         <f>B6+1</f>
         <v>2</v>
@@ -1762,7 +1762,7 @@
       </c>
     </row>
     <row r="8" spans="1:13" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A8" s="51"/>
+      <c r="A8" s="53"/>
       <c r="B8" s="13">
         <f>B7+1</f>
         <v>3</v>
@@ -1801,7 +1801,7 @@
       <c r="M8" s="19"/>
     </row>
     <row r="9" spans="1:13" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A9" s="51"/>
+      <c r="A9" s="53"/>
       <c r="B9" s="13">
         <f>B8+1</f>
         <v>4</v>
@@ -1842,7 +1842,7 @@
       </c>
     </row>
     <row r="10" spans="1:13" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A10" s="51"/>
+      <c r="A10" s="53"/>
       <c r="B10" s="13">
         <f>B9+1</f>
         <v>5</v>
@@ -1883,7 +1883,7 @@
       </c>
     </row>
     <row r="11" spans="1:13" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A11" s="51"/>
+      <c r="A11" s="53"/>
       <c r="B11" s="13">
         <f>B10+1</f>
         <v>6</v>
@@ -1922,7 +1922,7 @@
       <c r="M11" s="17"/>
     </row>
     <row r="12" spans="1:13" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A12" s="51"/>
+      <c r="A12" s="53"/>
       <c r="B12" s="22">
         <f t="shared" ref="B12:B16" si="3">B11+1</f>
         <v>7</v>
@@ -1961,7 +1961,7 @@
       </c>
     </row>
     <row r="13" spans="1:13" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A13" s="51"/>
+      <c r="A13" s="53"/>
       <c r="B13" s="22">
         <f t="shared" si="3"/>
         <v>8</v>
@@ -2000,7 +2000,7 @@
       </c>
     </row>
     <row r="14" spans="1:13" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A14" s="51"/>
+      <c r="A14" s="53"/>
       <c r="B14" s="13">
         <f t="shared" si="3"/>
         <v>9</v>
@@ -2039,7 +2039,7 @@
       </c>
     </row>
     <row r="15" spans="1:13" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A15" s="51"/>
+      <c r="A15" s="53"/>
       <c r="B15" s="13">
         <f t="shared" si="3"/>
         <v>10</v>
@@ -2078,7 +2078,7 @@
       </c>
     </row>
     <row r="16" spans="1:13" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A16" s="51"/>
+      <c r="A16" s="53"/>
       <c r="B16" s="22">
         <f t="shared" si="3"/>
         <v>11</v>
@@ -2117,7 +2117,7 @@
       </c>
     </row>
     <row r="17" spans="1:13" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A17" s="51"/>
+      <c r="A17" s="53"/>
       <c r="B17" s="13">
         <f t="shared" ref="B17:B18" si="5">B16+1</f>
         <v>12</v>
@@ -2156,7 +2156,7 @@
       </c>
     </row>
     <row r="18" spans="1:13" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A18" s="51"/>
+      <c r="A18" s="53"/>
       <c r="B18" s="22">
         <f t="shared" si="5"/>
         <v>13</v>
@@ -2215,11 +2215,499 @@
 </file>
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{4F1272D7-D111-44D1-8D7B-C8C37D80B9DE}">
+  <dimension ref="A1:M18"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="J8" sqref="J8"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="18.33203125" customWidth="1"/>
+    <col min="2" max="2" width="16" customWidth="1"/>
+    <col min="3" max="3" width="14.6640625" customWidth="1"/>
+    <col min="4" max="4" width="10.44140625" customWidth="1"/>
+    <col min="5" max="5" width="15" customWidth="1"/>
+    <col min="6" max="6" width="16.109375" customWidth="1"/>
+    <col min="7" max="7" width="13" customWidth="1"/>
+    <col min="8" max="8" width="14.33203125" customWidth="1"/>
+    <col min="9" max="9" width="12.5546875" customWidth="1"/>
+    <col min="10" max="10" width="19.5546875" customWidth="1"/>
+    <col min="11" max="11" width="19.33203125" customWidth="1"/>
+    <col min="12" max="12" width="19.109375" customWidth="1"/>
+    <col min="13" max="13" width="18" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:13" ht="27.75" x14ac:dyDescent="0.25">
+      <c r="E1" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="F1" s="1"/>
+      <c r="G1" s="1"/>
+      <c r="H1" s="1"/>
+      <c r="I1" s="1"/>
+      <c r="J1" s="1"/>
+    </row>
+    <row r="2" spans="1:13" ht="20.25" x14ac:dyDescent="0.25">
+      <c r="G2" s="2" t="s">
+        <v>90</v>
+      </c>
+      <c r="L2" s="42" t="s">
+        <v>16</v>
+      </c>
+      <c r="M2" s="7">
+        <v>1700000</v>
+      </c>
+    </row>
+    <row r="3" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="L3" s="42" t="s">
+        <v>36</v>
+      </c>
+      <c r="M3" s="12" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="4" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="E4" s="45"/>
+      <c r="F4" s="45"/>
+    </row>
+    <row r="5" spans="1:13" ht="33" x14ac:dyDescent="0.25">
+      <c r="B5" s="40" t="s">
+        <v>1</v>
+      </c>
+      <c r="C5" s="46" t="s">
+        <v>3</v>
+      </c>
+      <c r="D5" s="47"/>
+      <c r="E5" s="40" t="s">
+        <v>4</v>
+      </c>
+      <c r="F5" s="41" t="s">
+        <v>2</v>
+      </c>
+      <c r="G5" s="40" t="s">
+        <v>5</v>
+      </c>
+      <c r="H5" s="41" t="s">
+        <v>6</v>
+      </c>
+      <c r="I5" s="41" t="s">
+        <v>7</v>
+      </c>
+      <c r="J5" s="41" t="s">
+        <v>8</v>
+      </c>
+      <c r="K5" s="40" t="s">
+        <v>31</v>
+      </c>
+      <c r="L5" s="40" t="s">
+        <v>17</v>
+      </c>
+      <c r="M5" s="40" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="6" spans="1:13" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A6" s="52" t="s">
+        <v>87</v>
+      </c>
+      <c r="B6" s="13">
+        <v>1</v>
+      </c>
+      <c r="C6" s="10" t="s">
+        <v>25</v>
+      </c>
+      <c r="D6" s="8" t="s">
+        <v>21</v>
+      </c>
+      <c r="E6" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="F6" s="31">
+        <v>32340000</v>
+      </c>
+      <c r="G6" s="14">
+        <v>25500000</v>
+      </c>
+      <c r="H6" s="14">
+        <f t="shared" ref="H6:H11" si="0">F6-G6</f>
+        <v>6840000</v>
+      </c>
+      <c r="I6" s="14">
+        <f t="shared" ref="I6:I11" si="1">F6*40%</f>
+        <v>12936000</v>
+      </c>
+      <c r="J6" s="31">
+        <f t="shared" ref="J6:J11" si="2">H6*10%</f>
+        <v>684000</v>
+      </c>
+      <c r="K6" s="44" t="s">
+        <v>38</v>
+      </c>
+      <c r="L6" s="13" t="s">
+        <v>39</v>
+      </c>
+      <c r="M6" s="19" t="s">
+        <v>93</v>
+      </c>
+    </row>
+    <row r="7" spans="1:13" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A7" s="53"/>
+      <c r="B7" s="13">
+        <f>B6+1</f>
+        <v>2</v>
+      </c>
+      <c r="C7" s="11" t="s">
+        <v>27</v>
+      </c>
+      <c r="D7" s="9" t="s">
+        <v>33</v>
+      </c>
+      <c r="E7" s="4" t="s">
+        <v>19</v>
+      </c>
+      <c r="F7" s="31">
+        <v>31105000</v>
+      </c>
+      <c r="G7" s="14">
+        <v>25500000</v>
+      </c>
+      <c r="H7" s="14">
+        <f t="shared" si="0"/>
+        <v>5605000</v>
+      </c>
+      <c r="I7" s="14">
+        <f t="shared" si="1"/>
+        <v>12442000</v>
+      </c>
+      <c r="J7" s="31">
+        <f t="shared" si="2"/>
+        <v>560500</v>
+      </c>
+      <c r="K7" s="44" t="s">
+        <v>38</v>
+      </c>
+      <c r="L7" s="43" t="s">
+        <v>92</v>
+      </c>
+      <c r="M7" s="18" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="8" spans="1:13" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A8" s="53"/>
+      <c r="B8" s="13">
+        <f>B7+1</f>
+        <v>3</v>
+      </c>
+      <c r="C8" s="10" t="s">
+        <v>28</v>
+      </c>
+      <c r="D8" s="8" t="s">
+        <v>34</v>
+      </c>
+      <c r="E8" s="5" t="s">
+        <v>12</v>
+      </c>
+      <c r="F8" s="31">
+        <v>28020000</v>
+      </c>
+      <c r="G8" s="14">
+        <v>25500000</v>
+      </c>
+      <c r="H8" s="14">
+        <f t="shared" si="0"/>
+        <v>2520000</v>
+      </c>
+      <c r="I8" s="14">
+        <f t="shared" si="1"/>
+        <v>11208000</v>
+      </c>
+      <c r="J8" s="31">
+        <f t="shared" si="2"/>
+        <v>252000</v>
+      </c>
+      <c r="K8" s="16" t="s">
+        <v>39</v>
+      </c>
+      <c r="L8" s="13" t="s">
+        <v>39</v>
+      </c>
+      <c r="M8" s="19"/>
+    </row>
+    <row r="9" spans="1:13" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A9" s="53"/>
+      <c r="B9" s="13">
+        <f>B8+1</f>
+        <v>4</v>
+      </c>
+      <c r="C9" s="10" t="s">
+        <v>29</v>
+      </c>
+      <c r="D9" s="8" t="s">
+        <v>22</v>
+      </c>
+      <c r="E9" s="5" t="s">
+        <v>18</v>
+      </c>
+      <c r="F9" s="31">
+        <v>29024000</v>
+      </c>
+      <c r="G9" s="14">
+        <v>25500000</v>
+      </c>
+      <c r="H9" s="14">
+        <f t="shared" si="0"/>
+        <v>3524000</v>
+      </c>
+      <c r="I9" s="14">
+        <f t="shared" si="1"/>
+        <v>11609600</v>
+      </c>
+      <c r="J9" s="31">
+        <f t="shared" si="2"/>
+        <v>352400</v>
+      </c>
+      <c r="K9" s="44" t="s">
+        <v>38</v>
+      </c>
+      <c r="L9" s="43" t="s">
+        <v>92</v>
+      </c>
+      <c r="M9" s="18" t="s">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="10" spans="1:13" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A10" s="53"/>
+      <c r="B10" s="13">
+        <f>B9+1</f>
+        <v>5</v>
+      </c>
+      <c r="C10" s="10" t="s">
+        <v>35</v>
+      </c>
+      <c r="D10" s="8" t="s">
+        <v>23</v>
+      </c>
+      <c r="E10" s="5" t="s">
+        <v>14</v>
+      </c>
+      <c r="F10" s="31">
+        <v>26124000</v>
+      </c>
+      <c r="G10" s="14">
+        <v>25500000</v>
+      </c>
+      <c r="H10" s="14">
+        <f t="shared" si="0"/>
+        <v>624000</v>
+      </c>
+      <c r="I10" s="14">
+        <f t="shared" si="1"/>
+        <v>10449600</v>
+      </c>
+      <c r="J10" s="31">
+        <f t="shared" si="2"/>
+        <v>62400</v>
+      </c>
+      <c r="K10" s="44" t="s">
+        <v>38</v>
+      </c>
+      <c r="L10" s="43" t="s">
+        <v>92</v>
+      </c>
+      <c r="M10" s="19" t="s">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="11" spans="1:13" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A11" s="53"/>
+      <c r="B11" s="13">
+        <f>B10+1</f>
+        <v>6</v>
+      </c>
+      <c r="C11" s="10" t="s">
+        <v>30</v>
+      </c>
+      <c r="D11" s="8" t="s">
+        <v>24</v>
+      </c>
+      <c r="E11" s="6" t="s">
+        <v>20</v>
+      </c>
+      <c r="F11" s="31">
+        <v>32561000</v>
+      </c>
+      <c r="G11" s="14">
+        <v>25500000</v>
+      </c>
+      <c r="H11" s="14">
+        <f t="shared" si="0"/>
+        <v>7061000</v>
+      </c>
+      <c r="I11" s="14">
+        <f t="shared" si="1"/>
+        <v>13024400</v>
+      </c>
+      <c r="J11" s="31">
+        <f t="shared" si="2"/>
+        <v>706100</v>
+      </c>
+      <c r="K11" s="44" t="s">
+        <v>38</v>
+      </c>
+      <c r="L11" s="43" t="s">
+        <v>92</v>
+      </c>
+      <c r="M11" s="19" t="s">
+        <v>93</v>
+      </c>
+    </row>
+    <row r="12" spans="1:13" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A12" s="53"/>
+      <c r="B12" s="13">
+        <f t="shared" ref="B12:B14" si="3">B11+1</f>
+        <v>7</v>
+      </c>
+      <c r="C12" s="10" t="s">
+        <v>46</v>
+      </c>
+      <c r="D12" s="8" t="s">
+        <v>47</v>
+      </c>
+      <c r="E12" s="5" t="s">
+        <v>15</v>
+      </c>
+      <c r="F12" s="31">
+        <v>15425000</v>
+      </c>
+      <c r="G12" s="13" t="s">
+        <v>39</v>
+      </c>
+      <c r="H12" s="13" t="s">
+        <v>39</v>
+      </c>
+      <c r="I12" s="14">
+        <f t="shared" ref="I12:I13" si="4">F12*40%</f>
+        <v>6170000</v>
+      </c>
+      <c r="J12" s="13" t="s">
+        <v>39</v>
+      </c>
+      <c r="K12" s="13" t="s">
+        <v>39</v>
+      </c>
+      <c r="L12" s="13" t="s">
+        <v>39</v>
+      </c>
+      <c r="M12" s="33" t="s">
+        <v>64</v>
+      </c>
+    </row>
+    <row r="13" spans="1:13" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A13" s="53"/>
+      <c r="B13" s="13">
+        <f t="shared" si="3"/>
+        <v>8</v>
+      </c>
+      <c r="C13" s="10" t="s">
+        <v>48</v>
+      </c>
+      <c r="D13" s="8" t="s">
+        <v>49</v>
+      </c>
+      <c r="E13" s="6" t="s">
+        <v>68</v>
+      </c>
+      <c r="F13" s="31">
+        <v>25042000</v>
+      </c>
+      <c r="G13" s="13" t="s">
+        <v>39</v>
+      </c>
+      <c r="H13" s="13" t="s">
+        <v>39</v>
+      </c>
+      <c r="I13" s="14">
+        <f t="shared" si="4"/>
+        <v>10016800</v>
+      </c>
+      <c r="J13" s="13" t="s">
+        <v>39</v>
+      </c>
+      <c r="K13" s="44" t="s">
+        <v>38</v>
+      </c>
+      <c r="L13" s="13" t="s">
+        <v>39</v>
+      </c>
+      <c r="M13" s="33" t="s">
+        <v>65</v>
+      </c>
+    </row>
+    <row r="14" spans="1:13" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A14" s="53"/>
+      <c r="B14" s="13">
+        <f t="shared" si="3"/>
+        <v>9</v>
+      </c>
+      <c r="C14" s="10" t="s">
+        <v>52</v>
+      </c>
+      <c r="D14" s="8" t="s">
+        <v>53</v>
+      </c>
+      <c r="E14" s="20" t="s">
+        <v>61</v>
+      </c>
+      <c r="F14" s="31">
+        <v>5128000</v>
+      </c>
+      <c r="G14" s="13" t="s">
+        <v>39</v>
+      </c>
+      <c r="H14" s="13" t="s">
+        <v>39</v>
+      </c>
+      <c r="I14" s="14">
+        <f>F14*40%</f>
+        <v>2051200</v>
+      </c>
+      <c r="J14" s="13" t="s">
+        <v>39</v>
+      </c>
+      <c r="K14" s="13" t="s">
+        <v>39</v>
+      </c>
+      <c r="L14" s="13" t="s">
+        <v>39</v>
+      </c>
+      <c r="M14" s="33" t="s">
+        <v>66</v>
+      </c>
+    </row>
+    <row r="15" spans="1:13" ht="16.5" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="16" spans="1:13" ht="16.5" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="17" ht="16.5" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="18" ht="16.5" customHeight="1" x14ac:dyDescent="0.25"/>
+  </sheetData>
+  <mergeCells count="3">
+    <mergeCell ref="E4:F4"/>
+    <mergeCell ref="C5:D5"/>
+    <mergeCell ref="A6:A14"/>
+  </mergeCells>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{3FB137A3-41B7-4DC7-9EDA-24A43CCA2DD7}">
   <dimension ref="A1:M11"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="I16" sqref="I16"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="L6" sqref="L6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.25"/>
@@ -2232,6 +2720,7 @@
     <col min="7" max="7" width="15.33203125" customWidth="1"/>
     <col min="8" max="8" width="10.33203125" customWidth="1"/>
     <col min="9" max="9" width="20.33203125" customWidth="1"/>
+    <col min="10" max="10" width="14.33203125" customWidth="1"/>
     <col min="11" max="11" width="14.5546875" customWidth="1"/>
     <col min="12" max="12" width="14.33203125" customWidth="1"/>
     <col min="13" max="13" width="19" customWidth="1"/>
@@ -2267,17 +2756,17 @@
       </c>
     </row>
     <row r="4" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="E4" s="43"/>
-      <c r="F4" s="43"/>
+      <c r="E4" s="45"/>
+      <c r="F4" s="45"/>
     </row>
     <row r="5" spans="1:13" ht="66" x14ac:dyDescent="0.25">
       <c r="B5" s="40" t="s">
         <v>1</v>
       </c>
-      <c r="C5" s="44" t="s">
+      <c r="C5" s="46" t="s">
         <v>3</v>
       </c>
-      <c r="D5" s="45"/>
+      <c r="D5" s="47"/>
       <c r="E5" s="40" t="s">
         <v>4</v>
       </c>
@@ -2307,7 +2796,7 @@
       </c>
     </row>
     <row r="6" spans="1:13" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A6" s="46" t="s">
+      <c r="A6" s="48" t="s">
         <v>89</v>
       </c>
       <c r="B6" s="13">
@@ -2349,7 +2838,7 @@
       </c>
     </row>
     <row r="7" spans="1:13" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A7" s="47"/>
+      <c r="A7" s="49"/>
       <c r="B7" s="13">
         <f>B6+1</f>
         <v>2</v>
@@ -2388,7 +2877,7 @@
       </c>
     </row>
     <row r="8" spans="1:13" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A8" s="47"/>
+      <c r="A8" s="49"/>
       <c r="B8" s="13">
         <f t="shared" ref="B8" si="1">B7+1</f>
         <v>3</v>
@@ -2439,7 +2928,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{CE57A6F2-2519-423A-9D49-05AFEE0BCE69}">
   <dimension ref="A1:M24"/>
   <sheetViews>
@@ -2491,17 +2980,17 @@
       </c>
     </row>
     <row r="4" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="E4" s="43"/>
-      <c r="F4" s="43"/>
+      <c r="E4" s="45"/>
+      <c r="F4" s="45"/>
     </row>
     <row r="5" spans="1:13" ht="49.5" x14ac:dyDescent="0.25">
       <c r="B5" s="40" t="s">
         <v>1</v>
       </c>
-      <c r="C5" s="44" t="s">
+      <c r="C5" s="46" t="s">
         <v>3</v>
       </c>
-      <c r="D5" s="45"/>
+      <c r="D5" s="47"/>
       <c r="E5" s="40" t="s">
         <v>4</v>
       </c>
@@ -2531,7 +3020,7 @@
       </c>
     </row>
     <row r="6" spans="1:13" ht="54.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A6" s="48" t="s">
+      <c r="A6" s="50" t="s">
         <v>88</v>
       </c>
       <c r="B6" s="37">
@@ -2571,7 +3060,7 @@
       </c>
     </row>
     <row r="7" spans="1:13" ht="60.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A7" s="49"/>
+      <c r="A7" s="51"/>
       <c r="B7" s="37">
         <v>2</v>
       </c>
@@ -2609,7 +3098,7 @@
       </c>
     </row>
     <row r="8" spans="1:13" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A8" s="49"/>
+      <c r="A8" s="51"/>
       <c r="B8" s="13">
         <f>B7+1</f>
         <v>3</v>
@@ -2671,492 +3160,4 @@
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
-</file>
-
-<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{4F1272D7-D111-44D1-8D7B-C8C37D80B9DE}">
-  <dimension ref="A1:M18"/>
-  <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="L12" sqref="L12"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.25"/>
-  <cols>
-    <col min="1" max="1" width="18.33203125" customWidth="1"/>
-    <col min="2" max="2" width="16" customWidth="1"/>
-    <col min="3" max="3" width="14.6640625" customWidth="1"/>
-    <col min="4" max="4" width="10.44140625" customWidth="1"/>
-    <col min="5" max="5" width="15" customWidth="1"/>
-    <col min="6" max="6" width="16.109375" customWidth="1"/>
-    <col min="7" max="7" width="13" customWidth="1"/>
-    <col min="8" max="8" width="14.33203125" customWidth="1"/>
-    <col min="9" max="9" width="12.5546875" customWidth="1"/>
-    <col min="10" max="10" width="19.5546875" customWidth="1"/>
-    <col min="11" max="11" width="19.33203125" customWidth="1"/>
-    <col min="12" max="12" width="19.109375" customWidth="1"/>
-    <col min="13" max="13" width="18" customWidth="1"/>
-  </cols>
-  <sheetData>
-    <row r="1" spans="1:13" ht="27.75" x14ac:dyDescent="0.25">
-      <c r="E1" s="1" t="s">
-        <v>0</v>
-      </c>
-      <c r="F1" s="1"/>
-      <c r="G1" s="1"/>
-      <c r="H1" s="1"/>
-      <c r="I1" s="1"/>
-      <c r="J1" s="1"/>
-    </row>
-    <row r="2" spans="1:13" ht="20.25" x14ac:dyDescent="0.25">
-      <c r="G2" s="2" t="s">
-        <v>90</v>
-      </c>
-      <c r="L2" s="42" t="s">
-        <v>16</v>
-      </c>
-      <c r="M2" s="7">
-        <v>1700000</v>
-      </c>
-    </row>
-    <row r="3" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="L3" s="42" t="s">
-        <v>36</v>
-      </c>
-      <c r="M3" s="12" t="s">
-        <v>37</v>
-      </c>
-    </row>
-    <row r="4" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="E4" s="43"/>
-      <c r="F4" s="43"/>
-    </row>
-    <row r="5" spans="1:13" ht="33" x14ac:dyDescent="0.25">
-      <c r="B5" s="40" t="s">
-        <v>1</v>
-      </c>
-      <c r="C5" s="44" t="s">
-        <v>3</v>
-      </c>
-      <c r="D5" s="45"/>
-      <c r="E5" s="40" t="s">
-        <v>4</v>
-      </c>
-      <c r="F5" s="41" t="s">
-        <v>2</v>
-      </c>
-      <c r="G5" s="40" t="s">
-        <v>5</v>
-      </c>
-      <c r="H5" s="41" t="s">
-        <v>6</v>
-      </c>
-      <c r="I5" s="41" t="s">
-        <v>7</v>
-      </c>
-      <c r="J5" s="41" t="s">
-        <v>8</v>
-      </c>
-      <c r="K5" s="40" t="s">
-        <v>31</v>
-      </c>
-      <c r="L5" s="40" t="s">
-        <v>17</v>
-      </c>
-      <c r="M5" s="40" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="6" spans="1:13" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A6" s="50" t="s">
-        <v>87</v>
-      </c>
-      <c r="B6" s="13">
-        <v>1</v>
-      </c>
-      <c r="C6" s="10" t="s">
-        <v>25</v>
-      </c>
-      <c r="D6" s="8" t="s">
-        <v>21</v>
-      </c>
-      <c r="E6" s="3" t="s">
-        <v>10</v>
-      </c>
-      <c r="F6" s="31">
-        <v>32340000</v>
-      </c>
-      <c r="G6" s="14">
-        <v>25500000</v>
-      </c>
-      <c r="H6" s="14">
-        <f t="shared" ref="H6:H11" si="0">F6-G6</f>
-        <v>6840000</v>
-      </c>
-      <c r="I6" s="14">
-        <f t="shared" ref="I6:I11" si="1">F6*40%</f>
-        <v>12936000</v>
-      </c>
-      <c r="J6" s="31">
-        <f t="shared" ref="J6:J11" si="2">H6*10%</f>
-        <v>684000</v>
-      </c>
-      <c r="K6" s="53" t="s">
-        <v>38</v>
-      </c>
-      <c r="L6" s="13" t="s">
-        <v>39</v>
-      </c>
-      <c r="M6" s="19" t="s">
-        <v>93</v>
-      </c>
-    </row>
-    <row r="7" spans="1:13" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A7" s="51"/>
-      <c r="B7" s="13">
-        <f>B6+1</f>
-        <v>2</v>
-      </c>
-      <c r="C7" s="11" t="s">
-        <v>27</v>
-      </c>
-      <c r="D7" s="9" t="s">
-        <v>33</v>
-      </c>
-      <c r="E7" s="4" t="s">
-        <v>19</v>
-      </c>
-      <c r="F7" s="31">
-        <v>31105000</v>
-      </c>
-      <c r="G7" s="14">
-        <v>25500000</v>
-      </c>
-      <c r="H7" s="14">
-        <f t="shared" si="0"/>
-        <v>5605000</v>
-      </c>
-      <c r="I7" s="14">
-        <f t="shared" si="1"/>
-        <v>12442000</v>
-      </c>
-      <c r="J7" s="31">
-        <f t="shared" si="2"/>
-        <v>560500</v>
-      </c>
-      <c r="K7" s="53" t="s">
-        <v>38</v>
-      </c>
-      <c r="L7" s="52" t="s">
-        <v>92</v>
-      </c>
-      <c r="M7" s="18" t="s">
-        <v>40</v>
-      </c>
-    </row>
-    <row r="8" spans="1:13" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A8" s="51"/>
-      <c r="B8" s="13">
-        <f>B7+1</f>
-        <v>3</v>
-      </c>
-      <c r="C8" s="10" t="s">
-        <v>28</v>
-      </c>
-      <c r="D8" s="8" t="s">
-        <v>34</v>
-      </c>
-      <c r="E8" s="5" t="s">
-        <v>12</v>
-      </c>
-      <c r="F8" s="31">
-        <v>28020000</v>
-      </c>
-      <c r="G8" s="14">
-        <v>25500000</v>
-      </c>
-      <c r="H8" s="14">
-        <f t="shared" si="0"/>
-        <v>2520000</v>
-      </c>
-      <c r="I8" s="14">
-        <f t="shared" si="1"/>
-        <v>11208000</v>
-      </c>
-      <c r="J8" s="31">
-        <f t="shared" si="2"/>
-        <v>252000</v>
-      </c>
-      <c r="K8" s="16" t="s">
-        <v>39</v>
-      </c>
-      <c r="L8" s="13" t="s">
-        <v>39</v>
-      </c>
-      <c r="M8" s="19"/>
-    </row>
-    <row r="9" spans="1:13" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A9" s="51"/>
-      <c r="B9" s="13">
-        <f>B8+1</f>
-        <v>4</v>
-      </c>
-      <c r="C9" s="10" t="s">
-        <v>29</v>
-      </c>
-      <c r="D9" s="8" t="s">
-        <v>22</v>
-      </c>
-      <c r="E9" s="5" t="s">
-        <v>18</v>
-      </c>
-      <c r="F9" s="31">
-        <v>29024000</v>
-      </c>
-      <c r="G9" s="14">
-        <v>25500000</v>
-      </c>
-      <c r="H9" s="14">
-        <f t="shared" si="0"/>
-        <v>3524000</v>
-      </c>
-      <c r="I9" s="14">
-        <f t="shared" si="1"/>
-        <v>11609600</v>
-      </c>
-      <c r="J9" s="31">
-        <f t="shared" si="2"/>
-        <v>352400</v>
-      </c>
-      <c r="K9" s="53" t="s">
-        <v>38</v>
-      </c>
-      <c r="L9" s="52" t="s">
-        <v>92</v>
-      </c>
-      <c r="M9" s="18" t="s">
-        <v>42</v>
-      </c>
-    </row>
-    <row r="10" spans="1:13" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A10" s="51"/>
-      <c r="B10" s="13">
-        <f>B9+1</f>
-        <v>5</v>
-      </c>
-      <c r="C10" s="10" t="s">
-        <v>35</v>
-      </c>
-      <c r="D10" s="8" t="s">
-        <v>23</v>
-      </c>
-      <c r="E10" s="5" t="s">
-        <v>14</v>
-      </c>
-      <c r="F10" s="31">
-        <v>26124000</v>
-      </c>
-      <c r="G10" s="14">
-        <v>25500000</v>
-      </c>
-      <c r="H10" s="14">
-        <f t="shared" si="0"/>
-        <v>624000</v>
-      </c>
-      <c r="I10" s="14">
-        <f t="shared" si="1"/>
-        <v>10449600</v>
-      </c>
-      <c r="J10" s="31">
-        <f t="shared" si="2"/>
-        <v>62400</v>
-      </c>
-      <c r="K10" s="53" t="s">
-        <v>38</v>
-      </c>
-      <c r="L10" s="52" t="s">
-        <v>92</v>
-      </c>
-      <c r="M10" s="19" t="s">
-        <v>43</v>
-      </c>
-    </row>
-    <row r="11" spans="1:13" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A11" s="51"/>
-      <c r="B11" s="13">
-        <f>B10+1</f>
-        <v>6</v>
-      </c>
-      <c r="C11" s="10" t="s">
-        <v>30</v>
-      </c>
-      <c r="D11" s="8" t="s">
-        <v>24</v>
-      </c>
-      <c r="E11" s="6" t="s">
-        <v>20</v>
-      </c>
-      <c r="F11" s="31">
-        <v>32561000</v>
-      </c>
-      <c r="G11" s="14">
-        <v>25500000</v>
-      </c>
-      <c r="H11" s="14">
-        <f t="shared" si="0"/>
-        <v>7061000</v>
-      </c>
-      <c r="I11" s="14">
-        <f t="shared" si="1"/>
-        <v>13024400</v>
-      </c>
-      <c r="J11" s="31">
-        <f t="shared" si="2"/>
-        <v>706100</v>
-      </c>
-      <c r="K11" s="53" t="s">
-        <v>38</v>
-      </c>
-      <c r="L11" s="52" t="s">
-        <v>92</v>
-      </c>
-      <c r="M11" s="19" t="s">
-        <v>93</v>
-      </c>
-    </row>
-    <row r="12" spans="1:13" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A12" s="51"/>
-      <c r="B12" s="13">
-        <f t="shared" ref="B12:B14" si="3">B11+1</f>
-        <v>7</v>
-      </c>
-      <c r="C12" s="10" t="s">
-        <v>46</v>
-      </c>
-      <c r="D12" s="8" t="s">
-        <v>47</v>
-      </c>
-      <c r="E12" s="5" t="s">
-        <v>15</v>
-      </c>
-      <c r="F12" s="31">
-        <v>15425000</v>
-      </c>
-      <c r="G12" s="13" t="s">
-        <v>39</v>
-      </c>
-      <c r="H12" s="13" t="s">
-        <v>39</v>
-      </c>
-      <c r="I12" s="14">
-        <f t="shared" ref="I12:I13" si="4">F12*40%</f>
-        <v>6170000</v>
-      </c>
-      <c r="J12" s="13" t="s">
-        <v>39</v>
-      </c>
-      <c r="K12" s="13" t="s">
-        <v>39</v>
-      </c>
-      <c r="L12" s="13" t="s">
-        <v>39</v>
-      </c>
-      <c r="M12" s="33" t="s">
-        <v>64</v>
-      </c>
-    </row>
-    <row r="13" spans="1:13" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A13" s="51"/>
-      <c r="B13" s="13">
-        <f t="shared" si="3"/>
-        <v>8</v>
-      </c>
-      <c r="C13" s="10" t="s">
-        <v>48</v>
-      </c>
-      <c r="D13" s="8" t="s">
-        <v>49</v>
-      </c>
-      <c r="E13" s="6" t="s">
-        <v>68</v>
-      </c>
-      <c r="F13" s="31">
-        <v>25042000</v>
-      </c>
-      <c r="G13" s="13" t="s">
-        <v>39</v>
-      </c>
-      <c r="H13" s="13" t="s">
-        <v>39</v>
-      </c>
-      <c r="I13" s="14">
-        <f t="shared" si="4"/>
-        <v>10016800</v>
-      </c>
-      <c r="J13" s="13" t="s">
-        <v>39</v>
-      </c>
-      <c r="K13" s="13" t="s">
-        <v>39</v>
-      </c>
-      <c r="L13" s="13" t="s">
-        <v>39</v>
-      </c>
-      <c r="M13" s="33" t="s">
-        <v>65</v>
-      </c>
-    </row>
-    <row r="14" spans="1:13" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A14" s="51"/>
-      <c r="B14" s="13">
-        <f t="shared" si="3"/>
-        <v>9</v>
-      </c>
-      <c r="C14" s="10" t="s">
-        <v>52</v>
-      </c>
-      <c r="D14" s="8" t="s">
-        <v>53</v>
-      </c>
-      <c r="E14" s="20" t="s">
-        <v>61</v>
-      </c>
-      <c r="F14" s="31">
-        <v>5128000</v>
-      </c>
-      <c r="G14" s="13" t="s">
-        <v>39</v>
-      </c>
-      <c r="H14" s="13" t="s">
-        <v>39</v>
-      </c>
-      <c r="I14" s="14">
-        <f>F14*40%</f>
-        <v>2051200</v>
-      </c>
-      <c r="J14" s="13" t="s">
-        <v>39</v>
-      </c>
-      <c r="K14" s="13" t="s">
-        <v>39</v>
-      </c>
-      <c r="L14" s="13" t="s">
-        <v>39</v>
-      </c>
-      <c r="M14" s="33" t="s">
-        <v>66</v>
-      </c>
-    </row>
-    <row r="15" spans="1:13" ht="16.5" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="16" spans="1:13" ht="16.5" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="17" ht="16.5" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="18" ht="16.5" customHeight="1" x14ac:dyDescent="0.25"/>
-  </sheetData>
-  <mergeCells count="3">
-    <mergeCell ref="E4:F4"/>
-    <mergeCell ref="C5:D5"/>
-    <mergeCell ref="A6:A14"/>
-  </mergeCells>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-</worksheet>
 </file>
--- a/Chấm công/Chấm công tổng hợp/bảng chấm công 01 đến 15 tháng 01 năm 2026.xlsx
+++ b/Chấm công/Chấm công tổng hợp/bảng chấm công 01 đến 15 tháng 01 năm 2026.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Duc Anh\Chấm công\Chấm công tổng hợp\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{37BF4AC9-07B4-43F2-94CE-CDE11A8A206F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C4972285-8E68-4DC0-A5FE-D9AD3A24E3F8}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" activeTab="4" xr2:uid="{7C654F61-D3F6-46B9-9944-3469B6AD53BB}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" activeTab="3" xr2:uid="{7C654F61-D3F6-46B9-9944-3469B6AD53BB}"/>
   </bookViews>
   <sheets>
     <sheet name="Bắc đảo" sheetId="2" r:id="rId1"/>
@@ -2218,8 +2218,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{4F1272D7-D111-44D1-8D7B-C8C37D80B9DE}">
   <dimension ref="A1:M18"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="J8" sqref="J8"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="I22" sqref="I22"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.25"/>
@@ -2706,7 +2706,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{3FB137A3-41B7-4DC7-9EDA-24A43CCA2DD7}">
   <dimension ref="A1:M11"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="L6" sqref="L6"/>
     </sheetView>
   </sheetViews>
@@ -2759,7 +2759,7 @@
       <c r="E4" s="45"/>
       <c r="F4" s="45"/>
     </row>
-    <row r="5" spans="1:13" ht="66" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:13" ht="49.5" x14ac:dyDescent="0.25">
       <c r="B5" s="40" t="s">
         <v>1</v>
       </c>
